--- a/Statistics/Assessment/assissment_stast.xlsx
+++ b/Statistics/Assessment/assissment_stast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaud\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606702B2-D3F2-4C99-BE39-56AF669E679F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E022D33-A427-4678-AB0C-CD20B578841C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10356" yWindow="2508" windowWidth="12096" windowHeight="8880" xr2:uid="{AD811C7B-7C7A-4CA5-9F76-EB8B1866E0BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AD811C7B-7C7A-4CA5-9F76-EB8B1866E0BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Question 1. There is an assumption that there is no significant difference between boys and girls with respect to intelligence. Tests are conducted on two groups and the following are the observations</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>you can reject the null hypothesis, suggesting a significant difference between the means of the two groups.</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>chisqr</t>
   </si>
 </sst>
 </file>
@@ -210,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -219,9 +228,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -566,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF730A14-11B9-463B-905D-B1BD0138474A}">
   <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -659,7 +665,7 @@
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -673,10 +679,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAA12D3-3781-4DEE-BD46-A95F73DBA46E}">
-  <dimension ref="A2:E19"/>
+  <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,14 +690,15 @@
     <col min="2" max="2" width="10.44140625" customWidth="1"/>
     <col min="3" max="3" width="20.109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -705,7 +712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -719,7 +726,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -733,7 +740,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -747,12 +754,12 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>17</v>
       </c>
@@ -762,8 +769,17 @@
       <c r="E11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -778,8 +794,19 @@
       <c r="E12">
         <v>550</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <f>(C6-C12)^2/C12</f>
+        <v>0.98483166851646309</v>
+      </c>
+      <c r="I12">
+        <f>(D6-D12)^2/D12</f>
+        <v>22.833820267782531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -794,8 +821,19 @@
       <c r="E13">
         <v>990</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <f>(C7-C13)^2/C13</f>
+        <v>12.723320889247644</v>
+      </c>
+      <c r="I13">
+        <f>(D7-D13)^2/D13</f>
+        <v>9.5075364886685705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -808,20 +846,40 @@
       <c r="E14">
         <v>1590</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <f>_xlfn.CHISQ.INV.RT(0.05,1)</f>
-        <v>3.8414588206941236</v>
-      </c>
-      <c r="C17">
-        <f>_xlfn.CHISQ.TEST(C6:D7,C12:D13)</f>
-        <v>1.1530202159547562E-11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17">
+        <f>SUM(H12:I13)</f>
+        <v>46.049509314215207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18">
+        <f>2-1*2-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20">
+        <f>_xlfn.CHISQ.DIST.RT(H17,1)</f>
+        <v>1.1530202159547562E-11</v>
       </c>
     </row>
   </sheetData>
